--- a/peer-assessment-template.xlsx
+++ b/peer-assessment-template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Data structures\lecture4-main\lecture4-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Data structures\lecture5-main\lecture5-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F8402E-8273-48DC-9A6D-744826A37F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C002793-AA5B-44EB-A270-D2C992684061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Points</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Week 9</t>
   </si>
 </sst>
 </file>
@@ -287,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -301,12 +304,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -696,7 +693,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -787,59 +784,95 @@
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5">
+        <v>5</v>
+      </c>
       <c r="F5" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5">
+        <v>5</v>
+      </c>
       <c r="F6" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5">
+        <v>5</v>
+      </c>
       <c r="F7" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="1"/>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5">
+        <v>5</v>
+      </c>
+      <c r="F8" s="6">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="10">
+      <c r="A12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="8">
         <v>4</v>
       </c>
     </row>
